--- a/final/empty-example/assets/dimensions.xlsx
+++ b/final/empty-example/assets/dimensions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharrytong/Documents/GitHub/cim640/hw/Final/empty-example/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharrytong/Documents/GitHub/cim640/final/empty-example/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="3820" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Body</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>heigh</t>
+  </si>
+  <si>
+    <t>scarf</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,84 +478,105 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>217</v>
+      </c>
+      <c r="C10">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12">
         <f>B2/8</f>
         <v>136.25</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f>C2/8</f>
         <v>137.625</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f t="shared" ref="B12:C18" si="0">B3/8</f>
-        <v>22.25</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>83</v>
+        <f t="shared" ref="B13:C20" si="0">B3/8</f>
+        <v>22.25</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>25.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>132.625</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>135.625</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>134.25</v>
+        <v>132.625</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>55.375</v>
+        <v>135.625</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>134.25</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>98.25</v>
+        <v>55.375</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>31.75</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>B9/8</f>
         <v>79.5</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>52.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f>B10/8</f>
+        <v>27.125</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
       </c>
     </row>
   </sheetData>
